--- a/src/xlsx/test.xlsx
+++ b/src/xlsx/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchi\code\dev\attendance-management\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3142B5-D81A-4DB9-A418-6309CCBC56B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E3E8C-5F03-4B8F-8A8E-A1E76961FBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15394" activeTab="1" xr2:uid="{D3CD9171-5209-427F-994D-B242E2722E5C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="70">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -715,6 +715,29 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>チュウガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青柳亮</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤナギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北海道澄川小学校</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スミカワ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショウガッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1133,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B53671-D450-450F-94E4-F0E35A273FEB}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -2504,6 +2527,23 @@
         <v>61</v>
       </c>
     </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
